--- a/Threagile_ChemoDemo/tags.xlsx
+++ b/Threagile_ChemoDemo/tags.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>Element</t>
   </si>
@@ -275,6 +275,9 @@
   </si>
   <si>
     <t>DMZ</t>
+  </si>
+  <si>
+    <t>OT-Network</t>
   </si>
   <si>
     <t>OT-TB1</t>
@@ -1553,14 +1556,12 @@
         <v>89</v>
       </c>
       <c r="B84" s="1"/>
-      <c r="C84" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E84" s="1"/>
-      <c r="F84" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F84" s="1"/>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
@@ -1572,7 +1573,21 @@
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
+      <c r="F85" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
     </row>
   </sheetData>
   <pageSetup orientation="landscape" paperSize="9"/>
